--- a/widthSYNcombined.xlsx
+++ b/widthSYNcombined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="659" activeTab="6"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="659" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ColdYounger" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="400">
   <si>
     <t>Ind48_right_60xobj_YAYHAIR</t>
   </si>
@@ -1203,9 +1203,6 @@
     <t>Ind29_right_60xobj</t>
   </si>
   <si>
-    <t>2017-16-28</t>
-  </si>
-  <si>
     <t>Ind23_left_60x_second</t>
   </si>
   <si>
@@ -1234,7 +1231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1277,6 +1274,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1312,7 +1316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1390,8 +1394,74 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1399,11 +1469,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="74" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="74"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="143">
     <cellStyle name="40% - Accent1" xfId="74" builtinId="31"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1442,6 +1513,39 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1479,6 +1583,39 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="73" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1819,14 +1956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.33203125" customWidth="1"/>
@@ -1856,8 +1993,8 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3">
-        <v>42951</v>
+      <c r="B2" s="9">
+        <v>20170804</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2129,8 +2266,8 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3">
-        <v>42958</v>
+      <c r="B23" s="9">
+        <v>20170811</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -2402,8 +2539,8 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <v>42958</v>
+      <c r="B44" s="10">
+        <v>20170811</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -2675,8 +2812,8 @@
       <c r="A65" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="3">
-        <v>42955</v>
+      <c r="B65" s="10">
+        <v>20170808</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
@@ -2948,8 +3085,8 @@
       <c r="A86" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="3">
-        <v>42955</v>
+      <c r="B86" s="10">
+        <v>20170808</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -3221,8 +3358,8 @@
       <c r="A107" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="3">
-        <v>42958</v>
+      <c r="B107" s="10">
+        <v>20170811</v>
       </c>
       <c r="C107" s="2">
         <v>2</v>
@@ -3494,8 +3631,8 @@
       <c r="A128" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B128" s="3">
-        <v>42951</v>
+      <c r="B128" s="10">
+        <v>20170804</v>
       </c>
       <c r="C128" s="2">
         <v>3</v>
@@ -3632,8 +3769,8 @@
       <c r="A139" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B139" s="7">
-        <v>42951</v>
+      <c r="B139" s="10">
+        <v>20170804</v>
       </c>
       <c r="C139" s="2">
         <v>1</v>
@@ -3771,8 +3908,8 @@
       <c r="A150" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B150" s="7">
-        <v>42955</v>
+      <c r="B150" s="10">
+        <v>20170808</v>
       </c>
       <c r="C150" s="2">
         <v>3</v>
@@ -4135,11 +4272,11 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="7">
-        <v>42955</v>
+      <c r="B180" s="10">
+        <v>20170808</v>
       </c>
       <c r="C180" s="2">
         <v>2</v>
@@ -4325,8 +4462,8 @@
       <c r="A195" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B195" s="7">
-        <v>42958</v>
+      <c r="B195" s="10">
+        <v>20170811</v>
       </c>
       <c r="C195" s="2">
         <v>1</v>
@@ -4499,8 +4636,8 @@
       <c r="A209" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B209" s="7">
-        <v>42958</v>
+      <c r="B209" s="10">
+        <v>20170811</v>
       </c>
       <c r="C209" s="2">
         <v>4</v>
@@ -4662,8 +4799,8 @@
       <c r="A222" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B222" s="7">
-        <v>42958</v>
+      <c r="B222" s="10">
+        <v>20170811</v>
       </c>
       <c r="C222" s="2">
         <v>1</v>
@@ -4933,8 +5070,8 @@
       <c r="A244" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B244" s="7">
-        <v>42955</v>
+      <c r="B244" s="10">
+        <v>20170808</v>
       </c>
       <c r="C244" s="2">
         <v>2</v>
@@ -5204,8 +5341,8 @@
       <c r="A266" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B266" s="7">
-        <v>42955</v>
+      <c r="B266" s="10">
+        <v>20170808</v>
       </c>
       <c r="C266" s="2">
         <v>4</v>
@@ -5498,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F447"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253:E447"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5532,8 +5669,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3">
-        <v>42954</v>
+      <c r="B2" s="10">
+        <v>20170807</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5805,8 +5942,8 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
-        <v>42954</v>
+      <c r="B23" s="10">
+        <v>20170807</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -6078,8 +6215,8 @@
       <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="3">
-        <v>42954</v>
+      <c r="B44" s="10">
+        <v>20170807</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -6351,8 +6488,8 @@
       <c r="A65" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="3">
-        <v>42955</v>
+      <c r="B65" s="10">
+        <v>20170808</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
@@ -6624,8 +6761,8 @@
       <c r="A86" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="3">
-        <v>42955</v>
+      <c r="B86" s="10">
+        <v>20170808</v>
       </c>
       <c r="C86" s="2">
         <v>3</v>
@@ -6885,8 +7022,8 @@
       <c r="A106" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="3">
-        <v>42955</v>
+      <c r="B106" s="10">
+        <v>20170808</v>
       </c>
       <c r="C106" s="2">
         <v>2</v>
@@ -7158,8 +7295,8 @@
       <c r="A127" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="3">
-        <v>42955</v>
+      <c r="B127" s="10">
+        <v>20170808</v>
       </c>
       <c r="C127" s="2">
         <v>2</v>
@@ -7431,8 +7568,8 @@
       <c r="A148" t="s">
         <v>29</v>
       </c>
-      <c r="B148" s="3">
-        <v>42958</v>
+      <c r="B148" s="10">
+        <v>20170811</v>
       </c>
       <c r="C148" s="2">
         <v>3</v>
@@ -7704,8 +7841,8 @@
       <c r="A169" t="s">
         <v>121</v>
       </c>
-      <c r="B169" s="3">
-        <v>42958</v>
+      <c r="B169" s="10">
+        <v>20170811</v>
       </c>
       <c r="C169" s="2">
         <v>3</v>
@@ -7977,8 +8114,8 @@
       <c r="A190" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="3">
-        <v>42958</v>
+      <c r="B190" s="10">
+        <v>20170811</v>
       </c>
       <c r="C190" s="2">
         <v>3</v>
@@ -8250,8 +8387,8 @@
       <c r="A211" t="s">
         <v>131</v>
       </c>
-      <c r="B211" s="3">
-        <v>42958</v>
+      <c r="B211" s="10">
+        <v>20170811</v>
       </c>
       <c r="C211" s="2">
         <v>3</v>
@@ -8523,8 +8660,8 @@
       <c r="A232" t="s">
         <v>31</v>
       </c>
-      <c r="B232" s="3">
-        <v>42958</v>
+      <c r="B232" s="10">
+        <v>20170811</v>
       </c>
       <c r="C232" s="2">
         <v>3</v>
@@ -8796,8 +8933,8 @@
       <c r="A253" t="s">
         <v>357</v>
       </c>
-      <c r="B253" s="3">
-        <v>42951</v>
+      <c r="B253" s="10">
+        <v>20170804</v>
       </c>
       <c r="C253" s="2">
         <v>4</v>
@@ -8970,8 +9107,8 @@
       <c r="A267" t="s">
         <v>358</v>
       </c>
-      <c r="B267" s="7">
-        <v>42951</v>
+      <c r="B267" s="10">
+        <v>20170804</v>
       </c>
       <c r="C267" s="2">
         <v>3</v>
@@ -9181,8 +9318,8 @@
       <c r="A284" t="s">
         <v>359</v>
       </c>
-      <c r="B284" s="7">
-        <v>42951</v>
+      <c r="B284" s="10">
+        <v>20170804</v>
       </c>
       <c r="C284" s="2">
         <v>3</v>
@@ -9512,8 +9649,8 @@
       <c r="A311" t="s">
         <v>360</v>
       </c>
-      <c r="B311" s="7">
-        <v>42951</v>
+      <c r="B311" s="10">
+        <v>20170804</v>
       </c>
       <c r="C311" s="2">
         <v>1</v>
@@ -9783,8 +9920,8 @@
       <c r="A333" t="s">
         <v>361</v>
       </c>
-      <c r="B333" s="7">
-        <v>42958</v>
+      <c r="B333" s="10">
+        <v>20170811</v>
       </c>
       <c r="C333" s="2">
         <v>5</v>
@@ -10103,8 +10240,8 @@
       <c r="A359" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B359" s="7">
-        <v>42958</v>
+      <c r="B359" s="10">
+        <v>20170811</v>
       </c>
       <c r="C359" s="2">
         <v>1</v>
@@ -10289,8 +10426,8 @@
       <c r="A374" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B374" s="7">
-        <v>42958</v>
+      <c r="B374" s="10">
+        <v>20170811</v>
       </c>
       <c r="C374" s="2">
         <v>1</v>
@@ -10536,8 +10673,8 @@
       <c r="A394" t="s">
         <v>364</v>
       </c>
-      <c r="B394" s="7">
-        <v>42958</v>
+      <c r="B394" s="10">
+        <v>20170811</v>
       </c>
       <c r="C394" s="2">
         <v>2</v>
@@ -10675,8 +10812,8 @@
       <c r="A405" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B405" s="7">
-        <v>42958</v>
+      <c r="B405" s="10">
+        <v>20170811</v>
       </c>
       <c r="C405" s="2">
         <v>1</v>
@@ -10861,8 +10998,8 @@
       <c r="A420" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B420" s="3">
-        <v>42958</v>
+      <c r="B420" s="10">
+        <v>20170811</v>
       </c>
       <c r="C420" s="2">
         <v>3</v>
@@ -11215,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11248,8 +11385,8 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3">
-        <v>42943</v>
+      <c r="B2" s="10">
+        <v>20170727</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -11521,8 +11658,8 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3">
-        <v>42954</v>
+      <c r="B23" s="10">
+        <v>20170807</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -11806,8 +11943,8 @@
       <c r="A45" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="3">
-        <v>42955</v>
+      <c r="B45" s="10">
+        <v>20170808</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -12319,8 +12456,8 @@
       <c r="A86" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="3">
-        <v>42955</v>
+      <c r="B86" s="10">
+        <v>20170808</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -12832,8 +12969,8 @@
       <c r="A127" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="3">
-        <v>42958</v>
+      <c r="B127" s="10">
+        <v>20170811</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
@@ -13405,8 +13542,8 @@
       <c r="A173" t="s">
         <v>365</v>
       </c>
-      <c r="B173" s="3">
-        <v>42954</v>
+      <c r="B173" s="10">
+        <v>20170807</v>
       </c>
       <c r="C173" s="2">
         <v>2</v>
@@ -13555,8 +13692,8 @@
       <c r="A185" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="7">
-        <v>42954</v>
+      <c r="B185" s="10">
+        <v>20170807</v>
       </c>
       <c r="C185" s="2">
         <v>5</v>
@@ -13645,8 +13782,8 @@
       <c r="A192" t="s">
         <v>367</v>
       </c>
-      <c r="B192" s="7">
-        <v>42954</v>
+      <c r="B192" s="10">
+        <v>20170807</v>
       </c>
       <c r="C192" s="2">
         <v>3</v>
@@ -13736,8 +13873,8 @@
       <c r="A199" t="s">
         <v>368</v>
       </c>
-      <c r="B199" s="7">
-        <v>42954</v>
+      <c r="B199" s="10">
+        <v>20170807</v>
       </c>
       <c r="C199" s="2">
         <v>4</v>
@@ -13790,8 +13927,8 @@
       <c r="A203" t="s">
         <v>369</v>
       </c>
-      <c r="B203" s="7">
-        <v>42958</v>
+      <c r="B203" s="10">
+        <v>20170811</v>
       </c>
       <c r="C203" s="2">
         <v>3</v>
@@ -13916,8 +14053,8 @@
       <c r="A213" t="s">
         <v>370</v>
       </c>
-      <c r="B213" s="7">
-        <v>42958</v>
+      <c r="B213" s="10">
+        <v>20170811</v>
       </c>
       <c r="C213" s="2">
         <v>2</v>
@@ -14043,8 +14180,8 @@
       <c r="A223" t="s">
         <v>371</v>
       </c>
-      <c r="B223" s="7">
-        <v>42958</v>
+      <c r="B223" s="10">
+        <v>20170811</v>
       </c>
       <c r="C223" s="2">
         <v>3</v>
@@ -14109,8 +14246,8 @@
       <c r="A228" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B228" s="7">
-        <v>42954</v>
+      <c r="B228" s="10">
+        <v>20170807</v>
       </c>
       <c r="C228" s="2">
         <v>4</v>
@@ -14271,8 +14408,8 @@
       <c r="A241" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B241" s="7">
-        <v>42955</v>
+      <c r="B241" s="10">
+        <v>20170808</v>
       </c>
       <c r="C241" s="2">
         <v>1</v>
@@ -14602,8 +14739,8 @@
       <c r="A268" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B268" s="7">
-        <v>42955</v>
+      <c r="B268" s="10">
+        <v>20170808</v>
       </c>
       <c r="C268" s="2">
         <v>3</v>
@@ -14981,8 +15118,8 @@
       <c r="A299" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B299" s="7">
-        <v>42958</v>
+      <c r="B299" s="10">
+        <v>20170811</v>
       </c>
       <c r="C299" s="2">
         <v>3</v>
@@ -15214,8 +15351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211:E409"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15250,8 +15387,8 @@
       <c r="A2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="3">
-        <v>42943</v>
+      <c r="B2" s="10">
+        <v>20170727</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -15511,8 +15648,8 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
-        <v>42943</v>
+      <c r="B22" s="10">
+        <v>20170727</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -15784,8 +15921,8 @@
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="3">
-        <v>42943</v>
+      <c r="B43" s="10">
+        <v>20170727</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -16057,8 +16194,8 @@
       <c r="A64" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="3">
-        <v>42943</v>
+      <c r="B64" s="10">
+        <v>20170727</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
@@ -16330,8 +16467,8 @@
       <c r="A85" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="3">
-        <v>42954</v>
+      <c r="B85">
+        <v>20170807</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -16603,8 +16740,8 @@
       <c r="A106" t="s">
         <v>194</v>
       </c>
-      <c r="B106" s="3">
-        <v>42954</v>
+      <c r="B106">
+        <v>20170807</v>
       </c>
       <c r="C106" s="2">
         <v>2</v>
@@ -16876,8 +17013,8 @@
       <c r="A127" t="s">
         <v>40</v>
       </c>
-      <c r="B127" s="3">
-        <v>42954</v>
+      <c r="B127">
+        <v>20170807</v>
       </c>
       <c r="C127" s="2">
         <v>2</v>
@@ -17149,8 +17286,8 @@
       <c r="A148" t="s">
         <v>205</v>
       </c>
-      <c r="B148" s="3">
-        <v>42954</v>
+      <c r="B148">
+        <v>20170807</v>
       </c>
       <c r="C148" s="2">
         <v>3</v>
@@ -17422,8 +17559,8 @@
       <c r="A169" t="s">
         <v>211</v>
       </c>
-      <c r="B169" s="3">
-        <v>42954</v>
+      <c r="B169">
+        <v>20170807</v>
       </c>
       <c r="C169" s="2">
         <v>2</v>
@@ -17695,8 +17832,8 @@
       <c r="A190" t="s">
         <v>217</v>
       </c>
-      <c r="B190" s="3">
-        <v>42954</v>
+      <c r="B190">
+        <v>20170807</v>
       </c>
       <c r="C190" s="2">
         <v>4</v>
@@ -17968,8 +18105,8 @@
       <c r="A211" t="s">
         <v>375</v>
       </c>
-      <c r="B211" s="3">
-        <v>42943</v>
+      <c r="B211" s="10">
+        <v>20170727</v>
       </c>
       <c r="C211" s="2">
         <v>4</v>
@@ -18190,8 +18327,8 @@
       <c r="A229" t="s">
         <v>376</v>
       </c>
-      <c r="B229" s="7">
-        <v>42943</v>
+      <c r="B229" s="10">
+        <v>20170727</v>
       </c>
       <c r="C229" s="2">
         <v>3</v>
@@ -18341,8 +18478,8 @@
       <c r="A241" t="s">
         <v>377</v>
       </c>
-      <c r="B241" s="7">
-        <v>42943</v>
+      <c r="B241" s="10">
+        <v>20170727</v>
       </c>
       <c r="C241" s="2">
         <v>6</v>
@@ -18588,8 +18725,8 @@
       <c r="A261" t="s">
         <v>378</v>
       </c>
-      <c r="B261" s="7">
-        <v>42943</v>
+      <c r="B261" s="10">
+        <v>20170727</v>
       </c>
       <c r="C261" s="2">
         <v>5</v>
@@ -19076,8 +19213,8 @@
       <c r="A301" t="s">
         <v>379</v>
       </c>
-      <c r="B301" s="7">
-        <v>42943</v>
+      <c r="B301" s="10">
+        <v>20170727</v>
       </c>
       <c r="C301" s="2">
         <v>6</v>
@@ -20442,8 +20579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F423"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:E423"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20476,8 +20613,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>42914</v>
+      <c r="B2">
+        <v>20170628</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -20737,8 +20874,8 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>42914</v>
+      <c r="B22">
+        <v>20170628</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
@@ -21010,8 +21147,8 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3">
-        <v>42914</v>
+      <c r="B43">
+        <v>20170628</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
@@ -21283,8 +21420,8 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="3">
-        <v>42929</v>
+      <c r="B64">
+        <v>20170713</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
@@ -21556,8 +21693,8 @@
       <c r="A85" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="3">
-        <v>42929</v>
+      <c r="B85">
+        <v>20170713</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -21829,8 +21966,8 @@
       <c r="A106" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="3">
-        <v>42929</v>
+      <c r="B106">
+        <v>20170713</v>
       </c>
       <c r="C106" s="2">
         <v>2</v>
@@ -22102,8 +22239,8 @@
       <c r="A127" t="s">
         <v>253</v>
       </c>
-      <c r="B127" s="3">
-        <v>42914</v>
+      <c r="B127">
+        <v>20170628</v>
       </c>
       <c r="C127" s="2">
         <v>5</v>
@@ -22375,8 +22512,8 @@
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="3">
-        <v>42914</v>
+      <c r="B148">
+        <v>20170628</v>
       </c>
       <c r="C148" s="2">
         <v>5</v>
@@ -22429,8 +22566,8 @@
       <c r="A152" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="7">
-        <v>42914</v>
+      <c r="B152">
+        <v>20170628</v>
       </c>
       <c r="C152" s="2">
         <v>12</v>
@@ -23362,8 +23499,8 @@
       <c r="A227" t="s">
         <v>1</v>
       </c>
-      <c r="B227" s="3">
-        <v>43279</v>
+      <c r="B227">
+        <v>20170628</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -23709,8 +23846,8 @@
       <c r="A258" t="s">
         <v>9</v>
       </c>
-      <c r="B258" s="3">
-        <v>43279</v>
+      <c r="B258">
+        <v>20170628</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -24089,8 +24226,8 @@
       <c r="A292" t="s">
         <v>10</v>
       </c>
-      <c r="B292" s="3">
-        <v>43279</v>
+      <c r="B292">
+        <v>20170628</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -24445,10 +24582,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>398</v>
-      </c>
-      <c r="B324" s="3">
-        <v>43294</v>
+        <v>397</v>
+      </c>
+      <c r="B324">
+        <v>20170713</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -24885,8 +25022,8 @@
       <c r="A360" t="s">
         <v>12</v>
       </c>
-      <c r="B360" s="3">
-        <v>43294</v>
+      <c r="B360">
+        <v>20170713</v>
       </c>
       <c r="C360">
         <v>2</v>
@@ -25273,10 +25410,10 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>399</v>
-      </c>
-      <c r="B392" s="3">
-        <v>43279</v>
+        <v>398</v>
+      </c>
+      <c r="B392">
+        <v>20170628</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -25676,8 +25813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F604"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389:XFD389"/>
+    <sheetView topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="B573" sqref="B573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25712,8 +25849,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>42914</v>
+      <c r="B2" s="10">
+        <v>20170628</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -25973,8 +26110,8 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3">
-        <v>42914</v>
+      <c r="B22" s="10">
+        <v>20170628</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -26246,8 +26383,8 @@
       <c r="A43" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="3">
-        <v>42914</v>
+      <c r="B43" s="10">
+        <v>20170628</v>
       </c>
       <c r="C43" s="2">
         <v>6</v>
@@ -26519,8 +26656,8 @@
       <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="3">
-        <v>42929</v>
+      <c r="B64" s="10">
+        <v>20170713</v>
       </c>
       <c r="C64" s="2">
         <v>6</v>
@@ -26792,8 +26929,8 @@
       <c r="A85" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="3">
-        <v>42929</v>
+      <c r="B85" s="10">
+        <v>20170713</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -27065,8 +27202,8 @@
       <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="3">
-        <v>42929</v>
+      <c r="B106" s="10">
+        <v>20170713</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
@@ -27338,8 +27475,8 @@
       <c r="A127" t="s">
         <v>289</v>
       </c>
-      <c r="B127" s="3">
-        <v>42929</v>
+      <c r="B127" s="10">
+        <v>20170713</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
@@ -27611,8 +27748,8 @@
       <c r="A148" t="s">
         <v>295</v>
       </c>
-      <c r="B148" s="3">
-        <v>42929</v>
+      <c r="B148" s="10">
+        <v>20170713</v>
       </c>
       <c r="C148" s="2">
         <v>2</v>
@@ -27884,8 +28021,8 @@
       <c r="A169" t="s">
         <v>301</v>
       </c>
-      <c r="B169" s="3">
-        <v>42929</v>
+      <c r="B169" s="10">
+        <v>20170713</v>
       </c>
       <c r="C169" s="2">
         <v>2</v>
@@ -28157,8 +28294,8 @@
       <c r="A190" t="s">
         <v>384</v>
       </c>
-      <c r="B190" s="3">
-        <v>42929</v>
+      <c r="B190" s="10">
+        <v>20170713</v>
       </c>
       <c r="C190" s="2">
         <v>1</v>
@@ -28678,7 +28815,7 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="8" t="s">
         <v>387</v>
       </c>
       <c r="B232">
@@ -29710,8 +29847,8 @@
       <c r="A315" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B315" s="3" t="s">
-        <v>392</v>
+      <c r="B315" s="5">
+        <v>20170628</v>
       </c>
       <c r="C315" s="2">
         <v>5</v>
@@ -30213,7 +30350,7 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B356">
         <v>20170713</v>
@@ -30624,8 +30761,8 @@
       <c r="A389" t="s">
         <v>3</v>
       </c>
-      <c r="B389" s="3">
-        <v>43279</v>
+      <c r="B389" s="5">
+        <v>20170628</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -31110,8 +31247,8 @@
       <c r="A429" t="s">
         <v>4</v>
       </c>
-      <c r="B429" s="3">
-        <v>43279</v>
+      <c r="B429" s="5">
+        <v>20170628</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -31596,8 +31733,8 @@
       <c r="A469" t="s">
         <v>2</v>
       </c>
-      <c r="B469" s="3">
-        <v>43279</v>
+      <c r="B469" s="5">
+        <v>20170628</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -32080,10 +32217,10 @@
     </row>
     <row r="509" spans="1:5">
       <c r="A509" t="s">
-        <v>400</v>
-      </c>
-      <c r="B509" s="3">
-        <v>43294</v>
+        <v>399</v>
+      </c>
+      <c r="B509" s="5">
+        <v>20170713</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -32472,8 +32609,8 @@
       <c r="A541" t="s">
         <v>6</v>
       </c>
-      <c r="B541" s="3">
-        <v>43294</v>
+      <c r="B541" s="5">
+        <v>20170713</v>
       </c>
       <c r="C541">
         <v>2</v>
@@ -32860,10 +32997,10 @@
     </row>
     <row r="573" spans="1:5">
       <c r="A573" t="s">
-        <v>393</v>
-      </c>
-      <c r="B573" s="3">
-        <v>43294</v>
+        <v>392</v>
+      </c>
+      <c r="B573" s="5">
+        <v>20170713</v>
       </c>
       <c r="C573">
         <v>2</v>
@@ -33263,8 +33400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="G417" sqref="G417"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="B594" sqref="B594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -33297,8 +33434,8 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
-        <v>42909</v>
+      <c r="B2" s="5">
+        <v>20170623</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
@@ -33611,8 +33748,8 @@
       <c r="A22" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="3">
-        <v>42909</v>
+      <c r="B22" s="5">
+        <v>20170623</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -33940,8 +34077,8 @@
       <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="3">
-        <v>42909</v>
+      <c r="B43" s="5">
+        <v>20170623</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
@@ -34269,8 +34406,8 @@
       <c r="A64" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="3">
-        <v>42914</v>
+      <c r="B64" s="5">
+        <v>20170628</v>
       </c>
       <c r="C64" s="2">
         <v>6</v>
@@ -34673,8 +34810,8 @@
       <c r="A90" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="3">
-        <v>42914</v>
+      <c r="B90" s="5">
+        <v>20170628</v>
       </c>
       <c r="C90" s="2">
         <v>4</v>
@@ -35077,8 +35214,8 @@
       <c r="A116" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="3">
-        <v>42914</v>
+      <c r="B116" s="5">
+        <v>20170628</v>
       </c>
       <c r="C116" s="2">
         <v>6</v>
@@ -35406,8 +35543,8 @@
       <c r="A137" t="s">
         <v>19</v>
       </c>
-      <c r="B137" s="3">
-        <v>42909</v>
+      <c r="B137" s="5">
+        <v>20170623</v>
       </c>
       <c r="C137" s="2">
         <v>5</v>
@@ -35810,8 +35947,8 @@
       <c r="A163" t="s">
         <v>20</v>
       </c>
-      <c r="B163" s="3">
-        <v>42914</v>
+      <c r="B163" s="10">
+        <v>20170628</v>
       </c>
       <c r="C163" s="2">
         <v>5</v>
@@ -36139,8 +36276,8 @@
       <c r="A184" t="s">
         <v>0</v>
       </c>
-      <c r="B184" s="3">
-        <v>42909</v>
+      <c r="B184" s="10">
+        <v>20170623</v>
       </c>
       <c r="C184" s="2">
         <v>4</v>
@@ -36541,10 +36678,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>394</v>
-      </c>
-      <c r="B210" s="3">
-        <v>42909</v>
+        <v>393</v>
+      </c>
+      <c r="B210" s="10">
+        <v>20170623</v>
       </c>
       <c r="C210" s="2">
         <v>10</v>
@@ -36951,7 +37088,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B239">
         <v>20170623</v>
@@ -37151,7 +37288,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B253">
         <v>20170623</v>
@@ -37309,7 +37446,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B264">
         <v>20170628</v>
@@ -39379,8 +39516,8 @@
       <c r="A410" t="s">
         <v>15</v>
       </c>
-      <c r="B410" s="3">
-        <v>43274</v>
+      <c r="B410">
+        <v>20170623</v>
       </c>
       <c r="C410">
         <v>0.8</v>
@@ -39943,8 +40080,8 @@
       <c r="A450" t="s">
         <v>312</v>
       </c>
-      <c r="B450" s="3">
-        <v>43274</v>
+      <c r="B450" s="10">
+        <v>20170623</v>
       </c>
       <c r="C450">
         <v>0.8</v>
@@ -40507,8 +40644,8 @@
       <c r="A490" t="s">
         <v>14</v>
       </c>
-      <c r="B490" s="3">
-        <v>43274</v>
+      <c r="B490" s="10">
+        <v>20170623</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -41071,8 +41208,8 @@
       <c r="A530" t="s">
         <v>16</v>
       </c>
-      <c r="B530" s="3">
-        <v>43279</v>
+      <c r="B530" s="10">
+        <v>20170628</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -41523,8 +41660,8 @@
       <c r="A562" t="s">
         <v>17</v>
       </c>
-      <c r="B562" s="3">
-        <v>43279</v>
+      <c r="B562" s="10">
+        <v>20170628</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -41975,8 +42112,8 @@
       <c r="A594" t="s">
         <v>18</v>
       </c>
-      <c r="B594" s="3">
-        <v>43279</v>
+      <c r="B594" s="10">
+        <v>20170628</v>
       </c>
       <c r="C594">
         <v>1</v>
